--- a/seminar_2.xlsx
+++ b/seminar_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc201\Desktop\GB\HW\FinancialMathematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74AC276-36FD-4D22-BCF2-F0E2EFF82452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBC647E-B663-4DB4-AAE3-88EE9055D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{EA6B04E0-5A2E-431E-BF37-AFC215A5F138}"/>
   </bookViews>
@@ -72,31 +72,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Вывод:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NPV получился отрицательным, инвестировать в проект не будем</t>
-    </r>
-  </si>
-  <si>
     <t>найти NPV, если первые два года ставка дисконтирования равна 20%, следующие два года она равна 15%, и затем становится 10%.</t>
   </si>
   <si>
@@ -226,7 +201,45 @@
 потоки (проект Б)</t>
   </si>
   <si>
-    <t>NPV кумулятивно</t>
+    <r>
+      <t>Задача 5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2C2D30"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Есть два инвестиционных проекта со следующими денежными потоками:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вывод:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NPV получился положительным, будем инвестировать в проект.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -250,24 +263,11 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Болле ликвидный будет Проект Б по сколько он окупается на 4 году и NPV у него так же больше</t>
+      <t xml:space="preserve"> С точки зрения кумулятивных дисконтированных денежных потоков проект Б окупается чуть быстрее (в конце 4 года против начала 5 года), следует выбрать его:</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Задача 5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2C2D30"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Есть два инвестиционных проекта со следующими денежными потоками:</t>
-    </r>
+    <t>кумулятивно</t>
   </si>
 </sst>
 </file>
@@ -278,9 +278,9 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ &quot;₽&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -514,25 +514,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -542,11 +542,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -556,28 +554,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -898,7 +887,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,8 +1028,8 @@
         <v>5</v>
       </c>
       <c r="C11" s="17">
-        <f>NPV(15%,D8:H8)+C8</f>
-        <v>-287.27020918555741</v>
+        <f>NPV(15%/4,D8:H8)+C8</f>
+        <v>111.98857701149109</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1053,7 +1042,7 @@
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="9"/>
@@ -1100,7 +1089,7 @@
     <row r="16" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1115,27 +1104,27 @@
     <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="25">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11">
         <v>0</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="11">
         <v>1</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="11">
         <v>3</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="11">
         <v>4</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="11">
         <v>5</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="12">
         <v>6</v>
       </c>
       <c r="J17" s="9"/>
@@ -1146,7 +1135,7 @@
       <c r="B18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>-1500</v>
       </c>
       <c r="D18" s="14">
@@ -1173,7 +1162,7 @@
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1201,27 +1190,27 @@
     <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="25">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11">
         <v>0</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="11">
         <v>2</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="11">
         <v>3</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="11">
         <v>4</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="11">
         <v>5</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="12">
         <v>6</v>
       </c>
       <c r="J21" s="9"/>
@@ -1235,22 +1224,22 @@
       <c r="C22" s="21">
         <v>-1500</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="26">
         <v>100</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
         <v>200</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="26">
         <v>300</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="26">
         <v>400</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="26">
         <v>500</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <v>600</v>
       </c>
       <c r="J22" s="9"/>
@@ -1258,26 +1247,26 @@
     </row>
     <row r="23" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
-      <c r="B23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31">
+      <c r="B23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29">
         <v>0.2</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="29">
         <v>0.2</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="29">
         <v>0.15</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="29">
         <v>0.15</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="29">
         <v>0.1</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="29">
         <v>0.1</v>
       </c>
       <c r="J23" s="9"/>
@@ -1285,33 +1274,33 @@
     </row>
     <row r="24" spans="1:23" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
-      <c r="B24" s="30" t="s">
-        <v>11</v>
+      <c r="B24" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="21">
         <v>1</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="30">
         <f>C24/(1+D23)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
         <f t="shared" ref="E24:I24" si="0">D24/(1+E23)</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="30">
         <f t="shared" si="0"/>
         <v>0.60386473429951704</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <f t="shared" si="0"/>
         <v>0.52509976895610178</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <f t="shared" si="0"/>
         <v>0.47736342632372886</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <f t="shared" si="0"/>
         <v>0.43396675120338984</v>
       </c>
@@ -1320,34 +1309,34 @@
     </row>
     <row r="25" spans="1:23" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
-      <c r="B25" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="B25" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="33">
         <f>C22*C24</f>
         <v>-1500</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <f t="shared" ref="D25:I25" si="1">D22*D24</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <f t="shared" si="1"/>
         <v>138.88888888888891</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <f t="shared" si="1"/>
         <v>181.15942028985512</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="33">
         <f t="shared" si="1"/>
         <v>210.03990758244072</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="33">
         <f t="shared" si="1"/>
         <v>238.68171316186442</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="34">
         <f t="shared" si="1"/>
         <v>260.3800507220339</v>
       </c>
@@ -1359,7 +1348,7 @@
       <c r="B26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="35">
         <f>SUM(C25:I25)</f>
         <v>-387.51668602158378</v>
       </c>
@@ -1378,7 +1367,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="38"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1412,7 +1401,7 @@
     <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1450,18 +1439,18 @@
     <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="38">
+        <v>13</v>
+      </c>
+      <c r="C32" s="36">
         <f>IRR(C22:I22)</f>
         <v>8.2523831241376966E-2</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -1479,7 +1468,7 @@
     </row>
     <row r="33" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="9"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -1506,12 +1495,12 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -1541,7 +1530,7 @@
     <row r="36" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="9"/>
@@ -1553,8 +1542,8 @@
     </row>
     <row r="37" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
-      <c r="B37" s="46" t="s">
-        <v>9</v>
+      <c r="B37" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C37" s="11">
         <v>0</v>
@@ -1578,8 +1567,8 @@
     </row>
     <row r="38" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
-      <c r="B38" s="47" t="s">
-        <v>16</v>
+      <c r="B38" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="C38" s="21">
         <v>-1000</v>
@@ -1596,15 +1585,15 @@
       <c r="G38" s="21">
         <v>500</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="42">
         <v>550</v>
       </c>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
-      <c r="B39" s="47" t="s">
-        <v>17</v>
+      <c r="B39" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="C39" s="21">
         <v>-1000</v>
@@ -1621,7 +1610,7 @@
       <c r="G39" s="21">
         <v>450</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="42">
         <v>500</v>
       </c>
       <c r="I39" s="9"/>
@@ -1629,7 +1618,7 @@
     <row r="40" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1652,10 +1641,10 @@
     </row>
     <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
-      <c r="B42" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="42">
+      <c r="B42" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="17">
         <f>NPV(10%,D38:H38)+C38</f>
         <v>318.62577692780496</v>
       </c>
@@ -1668,10 +1657,10 @@
     </row>
     <row r="43" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
-      <c r="B43" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="42">
+      <c r="B43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="17">
         <f>NPV(10%,D39:H39)+C39</f>
         <v>348.09470292019273</v>
       </c>
@@ -1695,10 +1684,10 @@
     </row>
     <row r="45" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
-      <c r="B45" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="45">
+      <c r="B45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="39">
         <f>1+C42/-C38</f>
         <v>1.3186257769278049</v>
       </c>
@@ -1711,81 +1700,81 @@
     </row>
     <row r="46" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
-      <c r="B46" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="45">
+      <c r="B46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="39">
         <f>1+C43/-C39</f>
         <v>1.3480947029201928</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9"/>
       <c r="B52" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="9"/>
@@ -1797,8 +1786,8 @@
     </row>
     <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
-      <c r="B53" s="46" t="s">
-        <v>9</v>
+      <c r="B53" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C53" s="11">
         <v>0</v>
@@ -1822,8 +1811,8 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
-      <c r="B54" s="47" t="s">
-        <v>16</v>
+      <c r="B54" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="C54" s="21">
         <v>-1000</v>
@@ -1840,15 +1829,15 @@
       <c r="G54" s="21">
         <v>500</v>
       </c>
-      <c r="H54" s="48">
+      <c r="H54" s="42">
         <v>550</v>
       </c>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
-      <c r="B55" s="47" t="s">
-        <v>17</v>
+      <c r="B55" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="C55" s="21">
         <v>-1000</v>
@@ -1865,7 +1854,7 @@
       <c r="G55" s="21">
         <v>450</v>
       </c>
-      <c r="H55" s="48">
+      <c r="H55" s="42">
         <v>500</v>
       </c>
       <c r="I55" s="9"/>
@@ -1873,9 +1862,9 @@
     <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="53"/>
+        <v>24</v>
+      </c>
+      <c r="C56" s="44"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -1896,8 +1885,8 @@
     </row>
     <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
-      <c r="B58" s="46" t="s">
-        <v>9</v>
+      <c r="B58" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C58" s="11">
         <v>0</v>
@@ -1921,8 +1910,8 @@
     </row>
     <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
-      <c r="B59" s="47" t="s">
-        <v>16</v>
+      <c r="B59" s="41" t="s">
+        <v>15</v>
       </c>
       <c r="C59" s="21">
         <v>-1000</v>
@@ -1939,88 +1928,88 @@
       <c r="G59" s="21">
         <v>500</v>
       </c>
-      <c r="H59" s="48">
+      <c r="H59" s="42">
         <v>550</v>
       </c>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
-      <c r="B60" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="28">
-        <f>C59/(1+10%)^C58</f>
+      <c r="B60" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="26">
+        <f t="shared" ref="C60:H60" si="2">C59/(1+10%)^C58</f>
         <v>-1000</v>
       </c>
-      <c r="D60" s="28">
-        <f>D59/(1+10%)^D58</f>
+      <c r="D60" s="26">
+        <f t="shared" si="2"/>
         <v>90.909090909090907</v>
       </c>
-      <c r="E60" s="28">
-        <f>E59/(1+10%)^E58</f>
+      <c r="E60" s="26">
+        <f t="shared" si="2"/>
         <v>206.61157024793386</v>
       </c>
-      <c r="F60" s="28">
-        <f>F59/(1+10%)^F58</f>
+      <c r="F60" s="26">
+        <f t="shared" si="2"/>
         <v>338.09166040570989</v>
       </c>
-      <c r="G60" s="28">
-        <f>G59/(1+10%)^G58</f>
+      <c r="G60" s="26">
+        <f t="shared" si="2"/>
         <v>341.50672768253526</v>
       </c>
-      <c r="H60" s="29">
-        <f>H59/(1+10%)^H58</f>
+      <c r="H60" s="27">
+        <f t="shared" si="2"/>
         <v>341.50672768253526</v>
       </c>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
-      <c r="B61" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="28">
+      <c r="B61" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="26">
         <f>C60</f>
         <v>-1000</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D61" s="26">
         <f>C61+D60</f>
         <v>-909.09090909090912</v>
       </c>
-      <c r="E61" s="28">
-        <f t="shared" ref="E61:H61" si="2">D61+E60</f>
+      <c r="E61" s="26">
+        <f t="shared" ref="E61:H61" si="3">D61+E60</f>
         <v>-702.47933884297527</v>
       </c>
-      <c r="F61" s="28">
-        <f t="shared" si="2"/>
+      <c r="F61" s="26">
+        <f t="shared" si="3"/>
         <v>-364.38767843726538</v>
       </c>
-      <c r="G61" s="28">
-        <f t="shared" si="2"/>
+      <c r="G61" s="26">
+        <f t="shared" si="3"/>
         <v>-22.880950754730122</v>
       </c>
-      <c r="H61" s="29">
-        <f t="shared" si="2"/>
+      <c r="H61" s="27">
+        <f t="shared" si="3"/>
         <v>318.62577692780513</v>
       </c>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
-      <c r="B62" s="54"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="48"/>
+      <c r="H62" s="42"/>
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
-      <c r="B63" s="47" t="s">
-        <v>17</v>
+      <c r="B63" s="41" t="s">
+        <v>16</v>
       </c>
       <c r="C63" s="21">
         <v>-1000</v>
@@ -2037,46 +2026,46 @@
       <c r="G63" s="21">
         <v>450</v>
       </c>
-      <c r="H63" s="48">
+      <c r="H63" s="42">
         <v>500</v>
       </c>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
-      <c r="B64" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="28">
-        <f>C63/(1+10%)^C58</f>
+      <c r="B64" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="26">
+        <f t="shared" ref="C64:H64" si="4">C63/(1+10%)^C58</f>
         <v>-1000</v>
       </c>
-      <c r="D64" s="28">
-        <f>D63/(1+10%)^D58</f>
+      <c r="D64" s="26">
+        <f t="shared" si="4"/>
         <v>181.81818181818181</v>
       </c>
-      <c r="E64" s="28">
-        <f>E63/(1+10%)^E58</f>
+      <c r="E64" s="26">
+        <f t="shared" si="4"/>
         <v>247.93388429752062</v>
       </c>
-      <c r="F64" s="28">
-        <f>F63/(1+10%)^F58</f>
+      <c r="F64" s="26">
+        <f t="shared" si="4"/>
         <v>300.52592036063101</v>
       </c>
-      <c r="G64" s="28">
-        <f>G63/(1+10%)^G58</f>
+      <c r="G64" s="26">
+        <f t="shared" si="4"/>
         <v>307.35605491428174</v>
       </c>
-      <c r="H64" s="29">
-        <f>H63/(1+10%)^H58</f>
+      <c r="H64" s="27">
+        <f t="shared" si="4"/>
         <v>310.46066152957746</v>
       </c>
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
-      <c r="B65" s="52" t="s">
-        <v>28</v>
+      <c r="B65" s="43" t="s">
+        <v>30</v>
       </c>
       <c r="C65" s="14">
         <f>C64</f>
@@ -2087,19 +2076,19 @@
         <v>-818.18181818181824</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" ref="E65:H65" si="3">D65+E64</f>
+        <f t="shared" ref="E65:H65" si="5">D65+E64</f>
         <v>-570.24793388429759</v>
       </c>
       <c r="F65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-269.72201352366659</v>
       </c>
       <c r="G65" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.634041390615153</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>348.09470292019262</v>
       </c>
       <c r="I65" s="9"/>
@@ -2117,7 +2106,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
-      <c r="B67" s="49"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="17"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -2128,7 +2117,7 @@
     </row>
     <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C68" s="17"/>
